--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACD/20/seed4/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>3.8</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.0158</v>
+        <v>-12.3182</v>
       </c>
       <c r="D2" t="n">
         <v>-8.220000000000001</v>
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.6584</v>
+        <v>-11.9211</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.34979999999999</v>
+        <v>-12.0217</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.11159999999999</v>
+        <v>-7.313599999999987</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.27949999999997</v>
+        <v>-20.28819999999997</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -590,7 +590,7 @@
         <v>-13.02</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.755600000000003</v>
+        <v>-8.811700000000004</v>
       </c>
       <c r="E9" t="n">
         <v>12.31</v>
@@ -621,7 +621,7 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-14.23240000000001</v>
+        <v>-14.10300000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-13.94270000000002</v>
+        <v>-13.8107</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-21.87690000000001</v>
+        <v>-22.01990000000002</v>
       </c>
       <c r="B13" t="n">
         <v>4.42</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-19.81169999999999</v>
+        <v>-20.20219999999999</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-21.85830000000002</v>
+        <v>-21.97170000000002</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.00440000000002</v>
+        <v>-22.16800000000002</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -791,10 +791,10 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-14.12630000000001</v>
+        <v>-11.7683</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.252299999999998</v>
+        <v>-7.506300000000002</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
